--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Sema3b-Nrp2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Sema3b-Nrp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Nrp2</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.87313770309064</v>
+        <v>3.058809</v>
       </c>
       <c r="H2">
-        <v>2.87313770309064</v>
+        <v>9.176427</v>
       </c>
       <c r="I2">
-        <v>0.2610859104240977</v>
+        <v>0.2545796684648062</v>
       </c>
       <c r="J2">
-        <v>0.2610859104240977</v>
+        <v>0.2545796684648062</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>54.6972304867492</v>
+        <v>55.56529466666667</v>
       </c>
       <c r="N2">
-        <v>54.6972304867492</v>
+        <v>166.695884</v>
       </c>
       <c r="O2">
-        <v>0.4259172202448373</v>
+        <v>0.424029640296873</v>
       </c>
       <c r="P2">
-        <v>0.4259172202448373</v>
+        <v>0.4240296402968731</v>
       </c>
       <c r="Q2">
-        <v>157.1526751661179</v>
+        <v>169.963623414052</v>
       </c>
       <c r="R2">
-        <v>157.1526751661179</v>
+        <v>1529.672610726468</v>
       </c>
       <c r="S2">
-        <v>0.1112009852129243</v>
+        <v>0.1079493252460289</v>
       </c>
       <c r="T2">
-        <v>0.1112009852129243</v>
+        <v>0.107949325246029</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.87313770309064</v>
+        <v>3.058809</v>
       </c>
       <c r="H3">
-        <v>2.87313770309064</v>
+        <v>9.176427</v>
       </c>
       <c r="I3">
-        <v>0.2610859104240977</v>
+        <v>0.2545796684648062</v>
       </c>
       <c r="J3">
-        <v>0.2610859104240977</v>
+        <v>0.2545796684648062</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.8039332891305</v>
+        <v>10.84181733333333</v>
       </c>
       <c r="N3">
-        <v>10.8039332891305</v>
+        <v>32.525452</v>
       </c>
       <c r="O3">
-        <v>0.08412823086777477</v>
+        <v>0.08273603031526086</v>
       </c>
       <c r="P3">
-        <v>0.08412823086777477</v>
+        <v>0.08273603031526089</v>
       </c>
       <c r="Q3">
-        <v>31.04118807467691</v>
+        <v>33.163048435556</v>
       </c>
       <c r="R3">
-        <v>31.04118807467691</v>
+        <v>298.467435920004</v>
       </c>
       <c r="S3">
-        <v>0.02196469574848166</v>
+        <v>0.02106291116775326</v>
       </c>
       <c r="T3">
-        <v>0.02196469574848166</v>
+        <v>0.02106291116775327</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.87313770309064</v>
+        <v>3.058809</v>
       </c>
       <c r="H4">
-        <v>2.87313770309064</v>
+        <v>9.176427</v>
       </c>
       <c r="I4">
-        <v>0.2610859104240977</v>
+        <v>0.2545796684648062</v>
       </c>
       <c r="J4">
-        <v>0.2610859104240977</v>
+        <v>0.2545796684648062</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.8695375459458</v>
+        <v>40.13853466666666</v>
       </c>
       <c r="N4">
-        <v>39.8695375459458</v>
+        <v>120.415604</v>
       </c>
       <c r="O4">
-        <v>0.3104567169654085</v>
+        <v>0.3063050150071534</v>
       </c>
       <c r="P4">
-        <v>0.3104567169654085</v>
+        <v>0.3063050150071535</v>
       </c>
       <c r="Q4">
-        <v>114.5506715280448</v>
+        <v>122.776111085212</v>
       </c>
       <c r="R4">
-        <v>114.5506715280448</v>
+        <v>1104.984999766908</v>
       </c>
       <c r="S4">
-        <v>0.08105587459619011</v>
+        <v>0.07797902916962859</v>
       </c>
       <c r="T4">
-        <v>0.08105587459619011</v>
+        <v>0.07797902916962862</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.87313770309064</v>
+        <v>3.058809</v>
       </c>
       <c r="H5">
-        <v>2.87313770309064</v>
+        <v>9.176427</v>
       </c>
       <c r="I5">
-        <v>0.2610859104240977</v>
+        <v>0.2545796684648062</v>
       </c>
       <c r="J5">
-        <v>0.2610859104240977</v>
+        <v>0.2545796684648062</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.8993781078458</v>
+        <v>21.88776266666666</v>
       </c>
       <c r="N5">
-        <v>20.8993781078458</v>
+        <v>65.66328799999999</v>
       </c>
       <c r="O5">
-        <v>0.1627395930164311</v>
+        <v>0.167029801355803</v>
       </c>
       <c r="P5">
-        <v>0.1627395930164311</v>
+        <v>0.167029801355803</v>
       </c>
       <c r="Q5">
-        <v>60.04679121279889</v>
+        <v>66.95048543466399</v>
       </c>
       <c r="R5">
-        <v>60.04679121279889</v>
+        <v>602.554368911976</v>
       </c>
       <c r="S5">
-        <v>0.04248901480474204</v>
+        <v>0.04252239145290276</v>
       </c>
       <c r="T5">
-        <v>0.04248901480474204</v>
+        <v>0.04252239145290277</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.87313770309064</v>
+        <v>3.058809</v>
       </c>
       <c r="H6">
-        <v>2.87313770309064</v>
+        <v>9.176427</v>
       </c>
       <c r="I6">
-        <v>0.2610859104240977</v>
+        <v>0.2545796684648062</v>
       </c>
       <c r="J6">
-        <v>0.2610859104240977</v>
+        <v>0.2545796684648062</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.1521300675325</v>
+        <v>2.607653333333333</v>
       </c>
       <c r="N6">
-        <v>2.1521300675325</v>
+        <v>7.82296</v>
       </c>
       <c r="O6">
-        <v>0.01675823890554818</v>
+        <v>0.01989951302490964</v>
       </c>
       <c r="P6">
-        <v>0.01675823890554818</v>
+        <v>0.01989951302490964</v>
       </c>
       <c r="Q6">
-        <v>6.183366038982632</v>
+        <v>7.97631348488</v>
       </c>
       <c r="R6">
-        <v>6.183366038982632</v>
+        <v>71.78682136392</v>
       </c>
       <c r="S6">
-        <v>0.004375340061759582</v>
+        <v>0.005066011428492587</v>
       </c>
       <c r="T6">
-        <v>0.004375340061759582</v>
+        <v>0.005066011428492589</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.68338118320606</v>
+        <v>5.789052333333333</v>
       </c>
       <c r="H7">
-        <v>5.68338118320606</v>
+        <v>17.367157</v>
       </c>
       <c r="I7">
-        <v>0.5164565377107957</v>
+        <v>0.4818133540686629</v>
       </c>
       <c r="J7">
-        <v>0.5164565377107957</v>
+        <v>0.4818133540686629</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.6972304867492</v>
+        <v>55.56529466666667</v>
       </c>
       <c r="N7">
-        <v>54.6972304867492</v>
+        <v>166.695884</v>
       </c>
       <c r="O7">
-        <v>0.4259172202448373</v>
+        <v>0.424029640296873</v>
       </c>
       <c r="P7">
-        <v>0.4259172202448373</v>
+        <v>0.4240296402968731</v>
       </c>
       <c r="Q7">
-        <v>310.8652105218752</v>
+        <v>321.6703987424209</v>
       </c>
       <c r="R7">
-        <v>310.8652105218752</v>
+        <v>2895.033588681788</v>
       </c>
       <c r="S7">
-        <v>0.2199677329190551</v>
+        <v>0.204303143215965</v>
       </c>
       <c r="T7">
-        <v>0.2199677329190551</v>
+        <v>0.2043031432159651</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.68338118320606</v>
+        <v>5.789052333333333</v>
       </c>
       <c r="H8">
-        <v>5.68338118320606</v>
+        <v>17.367157</v>
       </c>
       <c r="I8">
-        <v>0.5164565377107957</v>
+        <v>0.4818133540686629</v>
       </c>
       <c r="J8">
-        <v>0.5164565377107957</v>
+        <v>0.4818133540686629</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.8039332891305</v>
+        <v>10.84181733333333</v>
       </c>
       <c r="N8">
-        <v>10.8039332891305</v>
+        <v>32.525452</v>
       </c>
       <c r="O8">
-        <v>0.08412823086777477</v>
+        <v>0.08273603031526086</v>
       </c>
       <c r="P8">
-        <v>0.08412823086777477</v>
+        <v>0.08273603031526089</v>
       </c>
       <c r="Q8">
-        <v>61.40287116005783</v>
+        <v>62.76384793110711</v>
       </c>
       <c r="R8">
-        <v>61.40287116005783</v>
+        <v>564.8746313799639</v>
       </c>
       <c r="S8">
-        <v>0.04344857483770544</v>
+        <v>0.0398633242685224</v>
       </c>
       <c r="T8">
-        <v>0.04344857483770544</v>
+        <v>0.03986332426852243</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.68338118320606</v>
+        <v>5.789052333333333</v>
       </c>
       <c r="H9">
-        <v>5.68338118320606</v>
+        <v>17.367157</v>
       </c>
       <c r="I9">
-        <v>0.5164565377107957</v>
+        <v>0.4818133540686629</v>
       </c>
       <c r="J9">
-        <v>0.5164565377107957</v>
+        <v>0.4818133540686629</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>39.8695375459458</v>
+        <v>40.13853466666666</v>
       </c>
       <c r="N9">
-        <v>39.8695375459458</v>
+        <v>120.415604</v>
       </c>
       <c r="O9">
-        <v>0.3104567169654085</v>
+        <v>0.3063050150071534</v>
       </c>
       <c r="P9">
-        <v>0.3104567169654085</v>
+        <v>0.3063050150071535</v>
       </c>
       <c r="Q9">
-        <v>226.5937794717559</v>
+        <v>232.3640777686475</v>
       </c>
       <c r="R9">
-        <v>226.5937794717559</v>
+        <v>2091.276699917828</v>
       </c>
       <c r="S9">
-        <v>0.1603374011530153</v>
+        <v>0.1475818466486487</v>
       </c>
       <c r="T9">
-        <v>0.1603374011530153</v>
+        <v>0.1475818466486487</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.68338118320606</v>
+        <v>5.789052333333333</v>
       </c>
       <c r="H10">
-        <v>5.68338118320606</v>
+        <v>17.367157</v>
       </c>
       <c r="I10">
-        <v>0.5164565377107957</v>
+        <v>0.4818133540686629</v>
       </c>
       <c r="J10">
-        <v>0.5164565377107957</v>
+        <v>0.4818133540686629</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.8993781078458</v>
+        <v>21.88776266666666</v>
       </c>
       <c r="N10">
-        <v>20.8993781078458</v>
+        <v>65.66328799999999</v>
       </c>
       <c r="O10">
-        <v>0.1627395930164311</v>
+        <v>0.167029801355803</v>
       </c>
       <c r="P10">
-        <v>0.1627395930164311</v>
+        <v>0.167029801355803</v>
       </c>
       <c r="Q10">
-        <v>118.7791322788395</v>
+        <v>126.7094035369129</v>
       </c>
       <c r="R10">
-        <v>118.7791322788395</v>
+        <v>1140.384631832216</v>
       </c>
       <c r="S10">
-        <v>0.08404792675772997</v>
+        <v>0.08047718882066193</v>
       </c>
       <c r="T10">
-        <v>0.08404792675772997</v>
+        <v>0.08047718882066195</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.68338118320606</v>
+        <v>5.789052333333333</v>
       </c>
       <c r="H11">
-        <v>5.68338118320606</v>
+        <v>17.367157</v>
       </c>
       <c r="I11">
-        <v>0.5164565377107957</v>
+        <v>0.4818133540686629</v>
       </c>
       <c r="J11">
-        <v>0.5164565377107957</v>
+        <v>0.4818133540686629</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.1521300675325</v>
+        <v>2.607653333333333</v>
       </c>
       <c r="N11">
-        <v>2.1521300675325</v>
+        <v>7.82296</v>
       </c>
       <c r="O11">
-        <v>0.01675823890554818</v>
+        <v>0.01989951302490964</v>
       </c>
       <c r="P11">
-        <v>0.01675823890554818</v>
+        <v>0.01989951302490964</v>
       </c>
       <c r="Q11">
-        <v>12.2313755296262</v>
+        <v>15.09584161385778</v>
       </c>
       <c r="R11">
-        <v>12.2313755296262</v>
+        <v>135.86257452472</v>
       </c>
       <c r="S11">
-        <v>0.008654902043289767</v>
+        <v>0.009587851114864756</v>
       </c>
       <c r="T11">
-        <v>0.008654902043289767</v>
+        <v>0.009587851114864756</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.982101614464982</v>
+        <v>1.00608</v>
       </c>
       <c r="H12">
-        <v>0.982101614464982</v>
+        <v>3.01824</v>
       </c>
       <c r="I12">
-        <v>0.0892449024861364</v>
+        <v>0.08373439232363715</v>
       </c>
       <c r="J12">
-        <v>0.0892449024861364</v>
+        <v>0.08373439232363716</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>54.6972304867492</v>
+        <v>55.56529466666667</v>
       </c>
       <c r="N12">
-        <v>54.6972304867492</v>
+        <v>166.695884</v>
       </c>
       <c r="O12">
-        <v>0.4259172202448373</v>
+        <v>0.424029640296873</v>
       </c>
       <c r="P12">
-        <v>0.4259172202448373</v>
+        <v>0.4240296402968731</v>
       </c>
       <c r="Q12">
-        <v>53.71823836779962</v>
+        <v>55.90313165824001</v>
       </c>
       <c r="R12">
-        <v>53.71823836779962</v>
+        <v>503.1281849241601</v>
       </c>
       <c r="S12">
-        <v>0.03801094078791678</v>
+        <v>0.03550586425746911</v>
       </c>
       <c r="T12">
-        <v>0.03801094078791678</v>
+        <v>0.03550586425746912</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.982101614464982</v>
+        <v>1.00608</v>
       </c>
       <c r="H13">
-        <v>0.982101614464982</v>
+        <v>3.01824</v>
       </c>
       <c r="I13">
-        <v>0.0892449024861364</v>
+        <v>0.08373439232363715</v>
       </c>
       <c r="J13">
-        <v>0.0892449024861364</v>
+        <v>0.08373439232363716</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.8039332891305</v>
+        <v>10.84181733333333</v>
       </c>
       <c r="N13">
-        <v>10.8039332891305</v>
+        <v>32.525452</v>
       </c>
       <c r="O13">
-        <v>0.08412823086777477</v>
+        <v>0.08273603031526086</v>
       </c>
       <c r="P13">
-        <v>0.08412823086777477</v>
+        <v>0.08273603031526089</v>
       </c>
       <c r="Q13">
-        <v>10.61056032582703</v>
+        <v>10.90773558272</v>
       </c>
       <c r="R13">
-        <v>10.61056032582703</v>
+        <v>98.16962024448</v>
       </c>
       <c r="S13">
-        <v>0.007508015760125729</v>
+        <v>0.00692785122171839</v>
       </c>
       <c r="T13">
-        <v>0.007508015760125729</v>
+        <v>0.006927851221718393</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.982101614464982</v>
+        <v>1.00608</v>
       </c>
       <c r="H14">
-        <v>0.982101614464982</v>
+        <v>3.01824</v>
       </c>
       <c r="I14">
-        <v>0.0892449024861364</v>
+        <v>0.08373439232363715</v>
       </c>
       <c r="J14">
-        <v>0.0892449024861364</v>
+        <v>0.08373439232363716</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>39.8695375459458</v>
+        <v>40.13853466666666</v>
       </c>
       <c r="N14">
-        <v>39.8695375459458</v>
+        <v>120.415604</v>
       </c>
       <c r="O14">
-        <v>0.3104567169654085</v>
+        <v>0.3063050150071534</v>
       </c>
       <c r="P14">
-        <v>0.3104567169654085</v>
+        <v>0.3063050150071535</v>
       </c>
       <c r="Q14">
-        <v>39.15593719184559</v>
+        <v>40.38257695744</v>
       </c>
       <c r="R14">
-        <v>39.15593719184559</v>
+        <v>363.44319261696</v>
       </c>
       <c r="S14">
-        <v>0.02770667943174393</v>
+        <v>0.02564826429730655</v>
       </c>
       <c r="T14">
-        <v>0.02770667943174393</v>
+        <v>0.02564826429730656</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.982101614464982</v>
+        <v>1.00608</v>
       </c>
       <c r="H15">
-        <v>0.982101614464982</v>
+        <v>3.01824</v>
       </c>
       <c r="I15">
-        <v>0.0892449024861364</v>
+        <v>0.08373439232363715</v>
       </c>
       <c r="J15">
-        <v>0.0892449024861364</v>
+        <v>0.08373439232363716</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.8993781078458</v>
+        <v>21.88776266666666</v>
       </c>
       <c r="N15">
-        <v>20.8993781078458</v>
+        <v>65.66328799999999</v>
       </c>
       <c r="O15">
-        <v>0.1627395930164311</v>
+        <v>0.167029801355803</v>
       </c>
       <c r="P15">
-        <v>0.1627395930164311</v>
+        <v>0.167029801355803</v>
       </c>
       <c r="Q15">
-        <v>20.52531298102946</v>
+        <v>22.02084026368</v>
       </c>
       <c r="R15">
-        <v>20.52531298102946</v>
+        <v>198.18756237312</v>
       </c>
       <c r="S15">
-        <v>0.01452367910938491</v>
+        <v>0.01398613891646599</v>
       </c>
       <c r="T15">
-        <v>0.01452367910938491</v>
+        <v>0.01398613891646599</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.982101614464982</v>
+        <v>1.00608</v>
       </c>
       <c r="H16">
-        <v>0.982101614464982</v>
+        <v>3.01824</v>
       </c>
       <c r="I16">
-        <v>0.0892449024861364</v>
+        <v>0.08373439232363715</v>
       </c>
       <c r="J16">
-        <v>0.0892449024861364</v>
+        <v>0.08373439232363716</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.1521300675325</v>
+        <v>2.607653333333333</v>
       </c>
       <c r="N16">
-        <v>2.1521300675325</v>
+        <v>7.82296</v>
       </c>
       <c r="O16">
-        <v>0.01675823890554818</v>
+        <v>0.01989951302490964</v>
       </c>
       <c r="P16">
-        <v>0.01675823890554818</v>
+        <v>0.01989951302490964</v>
       </c>
       <c r="Q16">
-        <v>2.113610413862299</v>
+        <v>2.6235078656</v>
       </c>
       <c r="R16">
-        <v>2.113610413862299</v>
+        <v>23.6115707904</v>
       </c>
       <c r="S16">
-        <v>0.001495587396965024</v>
+        <v>0.001666273630677111</v>
       </c>
       <c r="T16">
-        <v>0.001495587396965024</v>
+        <v>0.001666273630677111</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>1.46594768303509</v>
+        <v>0.6916763333333332</v>
       </c>
       <c r="H17">
-        <v>1.46594768303509</v>
+        <v>2.075029</v>
       </c>
       <c r="I17">
-        <v>0.1332126493789702</v>
+        <v>0.057567089551833</v>
       </c>
       <c r="J17">
-        <v>0.1332126493789702</v>
+        <v>0.05756708955183301</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.6972304867492</v>
+        <v>55.56529466666667</v>
       </c>
       <c r="N17">
-        <v>54.6972304867492</v>
+        <v>166.695884</v>
       </c>
       <c r="O17">
-        <v>0.4259172202448373</v>
+        <v>0.424029640296873</v>
       </c>
       <c r="P17">
-        <v>0.4259172202448373</v>
+        <v>0.4240296402968731</v>
       </c>
       <c r="Q17">
-        <v>80.18327830048626</v>
+        <v>38.43319927562622</v>
       </c>
       <c r="R17">
-        <v>80.18327830048626</v>
+        <v>345.898793480636</v>
       </c>
       <c r="S17">
-        <v>0.05673756132494113</v>
+        <v>0.02441015227560162</v>
       </c>
       <c r="T17">
-        <v>0.05673756132494113</v>
+        <v>0.02441015227560164</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>1.46594768303509</v>
+        <v>0.6916763333333332</v>
       </c>
       <c r="H18">
-        <v>1.46594768303509</v>
+        <v>2.075029</v>
       </c>
       <c r="I18">
-        <v>0.1332126493789702</v>
+        <v>0.057567089551833</v>
       </c>
       <c r="J18">
-        <v>0.1332126493789702</v>
+        <v>0.05756708955183301</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.8039332891305</v>
+        <v>10.84181733333333</v>
       </c>
       <c r="N18">
-        <v>10.8039332891305</v>
+        <v>32.525452</v>
       </c>
       <c r="O18">
-        <v>0.08412823086777477</v>
+        <v>0.08273603031526086</v>
       </c>
       <c r="P18">
-        <v>0.08412823086777477</v>
+        <v>0.08273603031526089</v>
       </c>
       <c r="Q18">
-        <v>15.83800097286653</v>
+        <v>7.499028459789777</v>
       </c>
       <c r="R18">
-        <v>15.83800097286653</v>
+        <v>67.491256138108</v>
       </c>
       <c r="S18">
-        <v>0.01120694452146194</v>
+        <v>0.004762872466321792</v>
       </c>
       <c r="T18">
-        <v>0.01120694452146194</v>
+        <v>0.004762872466321794</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>1.46594768303509</v>
+        <v>0.6916763333333332</v>
       </c>
       <c r="H19">
-        <v>1.46594768303509</v>
+        <v>2.075029</v>
       </c>
       <c r="I19">
-        <v>0.1332126493789702</v>
+        <v>0.057567089551833</v>
       </c>
       <c r="J19">
-        <v>0.1332126493789702</v>
+        <v>0.05756708955183301</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>39.8695375459458</v>
+        <v>40.13853466666666</v>
       </c>
       <c r="N19">
-        <v>39.8695375459458</v>
+        <v>120.415604</v>
       </c>
       <c r="O19">
-        <v>0.3104567169654085</v>
+        <v>0.3063050150071534</v>
       </c>
       <c r="P19">
-        <v>0.3104567169654085</v>
+        <v>0.3063050150071535</v>
       </c>
       <c r="Q19">
-        <v>58.44665618915977</v>
+        <v>27.76287448361288</v>
       </c>
       <c r="R19">
-        <v>58.44665618915977</v>
+        <v>249.865870352516</v>
       </c>
       <c r="S19">
-        <v>0.04135676178445914</v>
+        <v>0.01763308822909235</v>
       </c>
       <c r="T19">
-        <v>0.04135676178445914</v>
+        <v>0.01763308822909236</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>1.46594768303509</v>
+        <v>0.6916763333333332</v>
       </c>
       <c r="H20">
-        <v>1.46594768303509</v>
+        <v>2.075029</v>
       </c>
       <c r="I20">
-        <v>0.1332126493789702</v>
+        <v>0.057567089551833</v>
       </c>
       <c r="J20">
-        <v>0.1332126493789702</v>
+        <v>0.05756708955183301</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>20.8993781078458</v>
+        <v>21.88776266666666</v>
       </c>
       <c r="N20">
-        <v>20.8993781078458</v>
+        <v>65.66328799999999</v>
       </c>
       <c r="O20">
-        <v>0.1627395930164311</v>
+        <v>0.167029801355803</v>
       </c>
       <c r="P20">
-        <v>0.1627395930164311</v>
+        <v>0.167029801355803</v>
       </c>
       <c r="Q20">
-        <v>30.63739491407083</v>
+        <v>15.13924742615022</v>
       </c>
       <c r="R20">
-        <v>30.63739491407083</v>
+        <v>136.253226835352</v>
       </c>
       <c r="S20">
-        <v>0.02167897234457413</v>
+        <v>0.009615419532474386</v>
       </c>
       <c r="T20">
-        <v>0.02167897234457413</v>
+        <v>0.009615419532474391</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.6916763333333332</v>
+      </c>
+      <c r="H21">
+        <v>2.075029</v>
+      </c>
+      <c r="I21">
+        <v>0.057567089551833</v>
+      </c>
+      <c r="J21">
+        <v>0.05756708955183301</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.607653333333333</v>
+      </c>
+      <c r="N21">
+        <v>7.82296</v>
+      </c>
+      <c r="O21">
+        <v>0.01989951302490964</v>
+      </c>
+      <c r="P21">
+        <v>0.01989951302490964</v>
+      </c>
+      <c r="Q21">
+        <v>1.803652096204444</v>
+      </c>
+      <c r="R21">
+        <v>16.23286886584</v>
+      </c>
+      <c r="S21">
+        <v>0.00114555704834284</v>
+      </c>
+      <c r="T21">
+        <v>0.001145557048342841</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.469517</v>
+      </c>
+      <c r="H22">
+        <v>4.408550999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.1223054955910606</v>
+      </c>
+      <c r="J22">
+        <v>0.1223054955910606</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>55.56529466666667</v>
+      </c>
+      <c r="N22">
+        <v>166.695884</v>
+      </c>
+      <c r="O22">
+        <v>0.424029640296873</v>
+      </c>
+      <c r="P22">
+        <v>0.4240296402968731</v>
+      </c>
+      <c r="Q22">
+        <v>81.65414512267598</v>
+      </c>
+      <c r="R22">
+        <v>734.8873061040839</v>
+      </c>
+      <c r="S22">
+        <v>0.05186115530180822</v>
+      </c>
+      <c r="T22">
+        <v>0.05186115530180824</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.469517</v>
+      </c>
+      <c r="H23">
+        <v>4.408550999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.1223054955910606</v>
+      </c>
+      <c r="J23">
+        <v>0.1223054955910606</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>10.84181733333333</v>
+      </c>
+      <c r="N23">
+        <v>32.525452</v>
+      </c>
+      <c r="O23">
+        <v>0.08273603031526086</v>
+      </c>
+      <c r="P23">
+        <v>0.08273603031526089</v>
+      </c>
+      <c r="Q23">
+        <v>15.932234882228</v>
+      </c>
+      <c r="R23">
+        <v>143.390113940052</v>
+      </c>
+      <c r="S23">
+        <v>0.01011907119094499</v>
+      </c>
+      <c r="T23">
+        <v>0.010119071190945</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.469517</v>
+      </c>
+      <c r="H24">
+        <v>4.408550999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.1223054955910606</v>
+      </c>
+      <c r="J24">
+        <v>0.1223054955910606</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>40.13853466666666</v>
+      </c>
+      <c r="N24">
+        <v>120.415604</v>
+      </c>
+      <c r="O24">
+        <v>0.3063050150071534</v>
+      </c>
+      <c r="P24">
+        <v>0.3063050150071535</v>
+      </c>
+      <c r="Q24">
+        <v>58.98425904775598</v>
+      </c>
+      <c r="R24">
+        <v>530.8583314298039</v>
+      </c>
+      <c r="S24">
+        <v>0.03746278666247715</v>
+      </c>
+      <c r="T24">
+        <v>0.03746278666247718</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.46594768303509</v>
-      </c>
-      <c r="H21">
-        <v>1.46594768303509</v>
-      </c>
-      <c r="I21">
-        <v>0.1332126493789702</v>
-      </c>
-      <c r="J21">
-        <v>0.1332126493789702</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>2.1521300675325</v>
-      </c>
-      <c r="N21">
-        <v>2.1521300675325</v>
-      </c>
-      <c r="O21">
-        <v>0.01675823890554818</v>
-      </c>
-      <c r="P21">
-        <v>0.01675823890554818</v>
-      </c>
-      <c r="Q21">
-        <v>3.15491008608942</v>
-      </c>
-      <c r="R21">
-        <v>3.15491008608942</v>
-      </c>
-      <c r="S21">
-        <v>0.002232409403533806</v>
-      </c>
-      <c r="T21">
-        <v>0.002232409403533806</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.469517</v>
+      </c>
+      <c r="H25">
+        <v>4.408550999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.1223054955910606</v>
+      </c>
+      <c r="J25">
+        <v>0.1223054955910606</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>21.88776266666666</v>
+      </c>
+      <c r="N25">
+        <v>65.66328799999999</v>
+      </c>
+      <c r="O25">
+        <v>0.167029801355803</v>
+      </c>
+      <c r="P25">
+        <v>0.167029801355803</v>
+      </c>
+      <c r="Q25">
+        <v>32.16443933063199</v>
+      </c>
+      <c r="R25">
+        <v>289.4799539756879</v>
+      </c>
+      <c r="S25">
+        <v>0.02042866263329789</v>
+      </c>
+      <c r="T25">
+        <v>0.0204286626332979</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.469517</v>
+      </c>
+      <c r="H26">
+        <v>4.408550999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.1223054955910606</v>
+      </c>
+      <c r="J26">
+        <v>0.1223054955910606</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.607653333333333</v>
+      </c>
+      <c r="N26">
+        <v>7.82296</v>
+      </c>
+      <c r="O26">
+        <v>0.01989951302490964</v>
+      </c>
+      <c r="P26">
+        <v>0.01989951302490964</v>
+      </c>
+      <c r="Q26">
+        <v>3.831990903439999</v>
+      </c>
+      <c r="R26">
+        <v>34.48791813096</v>
+      </c>
+      <c r="S26">
+        <v>0.002433819802532339</v>
+      </c>
+      <c r="T26">
+        <v>0.002433819802532339</v>
       </c>
     </row>
   </sheetData>
